--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail5 Features.xlsx
@@ -3268,7 +3268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3279,29 +3279,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="17" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="17" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3322,115 +3320,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3447,72 +3435,66 @@
         <v>3.899721779311157e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.709690759005857</v>
+        <v>2.663320695991708e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>9.573315148219134</v>
+        <v>2.54521387164329e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.663320695991708e-08</v>
+        <v>-0.08530924914234354</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.54521387164329e-07</v>
+        <v>0.3101001484092359</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08530924914234354</v>
+        <v>0.1032193286667178</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3101001484092359</v>
+        <v>1.918227019515157</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1032193286667178</v>
+        <v>3.830357889391519</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.953647961496343</v>
+        <v>7.982213460753778</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.830357889391519</v>
+        <v>1.040866985934955e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.982213460753778</v>
+        <v>292702492512.517</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.040866985934955e-19</v>
+        <v>4.096901498172897e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>292702492512.517</v>
+        <v>8917.60178904321</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.096901498172897e-10</v>
+        <v>5.200754367083129e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8917.60178904321</v>
+        <v>7.625294196096172</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5.200754367083129e-06</v>
+        <v>1.502535310685405</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.625294196096172</v>
+        <v>0.000302398442958712</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.502535310685405</v>
+        <v>8.660679066907411</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.000302398442958712</v>
+        <v>0.9650246782315031</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.660679066907411</v>
+        <v>0.6619614046174864</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9650246782315031</v>
+        <v>637</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6619614046174864</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>637</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>18.50541050688012</v>
       </c>
     </row>
@@ -3527,72 +3509,66 @@
         <v>3.055388674300319e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.996962093570403</v>
+        <v>2.037420262954486e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.440497118911317</v>
+        <v>2.542451248581556e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.037420262954486e-08</v>
+        <v>-0.07393995696507026</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.542451248581556e-07</v>
+        <v>0.3040335879752887</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07393995696507026</v>
+        <v>0.09770455441284587</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3040335879752887</v>
+        <v>1.918997218354359</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09770455441284587</v>
+        <v>4.389083663961165</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.948233989671047</v>
+        <v>7.833380296936555</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.389083663961165</v>
+        <v>1.08079539683931e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.833380296936555</v>
+        <v>283047259972.0748</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.08079539683931e-19</v>
+        <v>4.238686407686791e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>283047259972.0748</v>
+        <v>8658.873530334</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.238686407686791e-10</v>
+        <v>5.112460333297747e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>8658.873530334</v>
+        <v>7.423892627812054</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.112460333297747e-06</v>
+        <v>1.747251239237268</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.423892627812054</v>
+        <v>0.0002817690679953678</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.747251239237268</v>
+        <v>8.740869589961065</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0002817690679953678</v>
+        <v>0.9651668243584069</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.740869589961065</v>
+        <v>0.6989008274112432</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9651668243584069</v>
+        <v>627</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6989008274112432</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>627</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>19.25013547536564</v>
       </c>
     </row>
@@ -3607,72 +3583,66 @@
         <v>2.513074487293616e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.137309282525839</v>
+        <v>1.574901010940714e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.029558693841722</v>
+        <v>2.540610195688777e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.574901010940714e-08</v>
+        <v>-0.05839151490440306</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.540610195688777e-07</v>
+        <v>0.2904074220536808</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05839151490440306</v>
+        <v>0.08758483574113768</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2904074220536808</v>
+        <v>1.921166821685903</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08758483574113768</v>
+        <v>3.814804102048177</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.950893139315303</v>
+        <v>7.760715837302675</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.814804102048177</v>
+        <v>1.101129366827955e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.760715837302675</v>
+        <v>276737714451.5277</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.101129366827955e-19</v>
+        <v>4.332908784655617e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>276737714451.5277</v>
+        <v>8432.863002088105</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.332908784655617e-10</v>
+        <v>4.759994933873246e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>8432.863002088105</v>
+        <v>8.191047356581338</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>4.759994933873246e-06</v>
+        <v>1.653325370582106</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.191047356581338</v>
+        <v>0.0003193635624543853</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.653325370582106</v>
+        <v>8.792051799229885</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0003193635624543853</v>
+        <v>0.9642288145367337</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.792051799229885</v>
+        <v>0.7063449551345554</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9642288145367337</v>
+        <v>621</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7063449551345554</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>621</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>19.66596060676153</v>
       </c>
     </row>
@@ -3687,72 +3657,66 @@
         <v>2.198424852192744e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3963754333848606</v>
+        <v>1.235896082843742e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.5807846255609697</v>
+        <v>2.539451728253084e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.235896082843742e-08</v>
+        <v>-0.04026929737811494</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.539451728253084e-07</v>
+        <v>0.2701427309699756</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.04026929737811494</v>
+        <v>0.07449108707670464</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2701427309699756</v>
+        <v>1.923855942520739</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07449108707670464</v>
+        <v>4.30505183896647</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.953726378200333</v>
+        <v>7.767972890115175</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.30505183896647</v>
+        <v>1.09907291750777e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>7.767972890115175</v>
+        <v>276358642028.4713</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.09907291750777e-19</v>
+        <v>4.33937101360504e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>276358642028.4713</v>
+        <v>8394.070383613796</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.33937101360504e-10</v>
+        <v>4.366118812793528e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>8394.070383613796</v>
+        <v>8.798128803568121</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>4.366118812793528e-06</v>
+        <v>1.424545084538381</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.798128803568121</v>
+        <v>0.0003379684665095463</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.424545084538381</v>
+        <v>8.78550032774109</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0003379684665095463</v>
+        <v>0.9630387476237728</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.78550032774109</v>
+        <v>0.6848417365113671</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9630387476237728</v>
+        <v>613</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6848417365113671</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>613</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>19.14282197399804</v>
       </c>
     </row>
@@ -3767,72 +3731,66 @@
         <v>2.038150388643641e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.04465954040791416</v>
+        <v>9.966889022778589e-09</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.5344605510924691</v>
+        <v>2.538784797564928e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.966889022778589e-09</v>
+        <v>-0.02324902941162921</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.538784797564928e-07</v>
+        <v>0.2511127154980783</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.02324902941162921</v>
+        <v>0.06353197427229212</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2511127154980783</v>
+        <v>1.931466103642959</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06353197427229212</v>
+        <v>4.124538871845127</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.959108638042429</v>
+        <v>7.434875579812353</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.124538871845127</v>
+        <v>1.111421615136782e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>7.434875579812353</v>
+        <v>268043011618.0569</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.111421615136782e-19</v>
+        <v>4.477747184790813e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>268043011618.0569</v>
+        <v>7985.237110823104</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.477747184790813e-10</v>
+        <v>5.056761862804301e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>7985.237110823104</v>
+        <v>8.934452410497753</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>5.056761862804301e-06</v>
+        <v>1.310492825948445</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.934452410497753</v>
+        <v>0.000403653183281886</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.310492825948445</v>
+        <v>8.728684874200209</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.000403653183281886</v>
+        <v>0.9620906021362766</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.728684874200209</v>
+        <v>0.6801970652512055</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9620906021362766</v>
+        <v>595</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6801970652512055</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>595</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>18.15278114552199</v>
       </c>
     </row>
@@ -3847,72 +3805,66 @@
         <v>1.974314320003802e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.2115214052053314</v>
+        <v>8.098363892349862e-09</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.8261756703326881</v>
+        <v>2.538475424897303e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.098363892349862e-09</v>
+        <v>-0.008001947738606324</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.538475424897303e-07</v>
+        <v>0.2296202381542718</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.008001947738606324</v>
+        <v>0.05273989264839241</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2296202381542718</v>
+        <v>1.931751495284401</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05273989264839241</v>
+        <v>4.614535054878832</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.962539734461807</v>
+        <v>7.230307428222758</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.614535054878832</v>
+        <v>1.175202541031497e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.230307428222758</v>
+        <v>249668739401.8672</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.175202541031497e-19</v>
+        <v>4.802420071639644e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>249668739401.8672</v>
+        <v>7325.563862532053</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.802420071639644e-10</v>
+        <v>4.967321260528886e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7325.563862532053</v>
+        <v>9.432014767134847</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>4.967321260528886e-06</v>
+        <v>1.264651332875723</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.432014767134847</v>
+        <v>0.0004419073173216534</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.264651332875723</v>
+        <v>8.726959288281021</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0004419073173216534</v>
+        <v>0.9632156624917955</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.726959288281021</v>
+        <v>0.6934813973124294</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9632156624917955</v>
+        <v>573</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6934813973124294</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>573</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>18.18775613535373</v>
       </c>
     </row>
@@ -4289,7 +4241,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.206000970082932</v>
+        <v>1.22187372525452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.875879061686545</v>
@@ -4378,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.212503930002822</v>
+        <v>1.228495674438623</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.894728556206214</v>
@@ -4467,7 +4419,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.217697718965304</v>
+        <v>1.237415861703349</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.884492264401258</v>
@@ -4556,7 +4508,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.224031079307609</v>
+        <v>1.243847265618223</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.872586242155437</v>
@@ -4645,7 +4597,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.240736465114102</v>
+        <v>1.264570439052408</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.74677717202702</v>
@@ -4734,7 +4686,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.250626375343236</v>
+        <v>1.273657260975464</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.841294260319709</v>
@@ -4823,7 +4775,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.256211188890269</v>
+        <v>1.276691929015275</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.841850538220642</v>
@@ -4912,7 +4864,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.271600016917827</v>
+        <v>1.293215205017716</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.803300649852478</v>
@@ -5001,7 +4953,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.326447737295399</v>
+        <v>1.344277721054599</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.631984039439257</v>
@@ -5090,7 +5042,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.370035631916551</v>
+        <v>1.393160762865242</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.139490852812578</v>
@@ -5179,7 +5131,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.38169535976609</v>
+        <v>1.402143688389576</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.158417994880046</v>
@@ -5268,7 +5220,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.420643866363807</v>
+        <v>1.438559955735881</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.026945409426925</v>
@@ -5357,7 +5309,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.428128739859992</v>
+        <v>1.445848794587116</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.203559445691817</v>
@@ -5446,7 +5398,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.462570306724358</v>
+        <v>1.481132286875471</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.201548370367203</v>
@@ -5535,7 +5487,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.467130788347125</v>
+        <v>1.484207678723425</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.169982943919961</v>
@@ -5624,7 +5576,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.482260798370718</v>
+        <v>1.498725466460241</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.147850322839735</v>
@@ -5713,7 +5665,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.458913284899033</v>
+        <v>1.478547159522581</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.302163376532257</v>
@@ -5802,7 +5754,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.474025302101358</v>
+        <v>1.492984587783077</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.259160981332335</v>
@@ -5891,7 +5843,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473949975973818</v>
+        <v>1.489847137760345</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.347669345594045</v>
@@ -5980,7 +5932,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473177083210436</v>
+        <v>1.489764318598045</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.258466640007545</v>
@@ -6069,7 +6021,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.456541409585176</v>
+        <v>1.474043562189463</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.423411677310984</v>
@@ -6158,7 +6110,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.440874617200341</v>
+        <v>1.462357683589612</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.372523549761867</v>
@@ -6247,7 +6199,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.442198030143724</v>
+        <v>1.465322198234639</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.336555027514065</v>
@@ -6336,7 +6288,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.431332565897734</v>
+        <v>1.455808538261583</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.311190960218022</v>
@@ -6425,7 +6377,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.426144990634365</v>
+        <v>1.447708379549281</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.337106647870682</v>
@@ -6514,7 +6466,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.440960870766006</v>
+        <v>1.467318607816477</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.320478733662948</v>
@@ -6603,7 +6555,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.440559298410444</v>
+        <v>1.465300852277112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.34304914649565</v>
@@ -6692,7 +6644,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.459161748624573</v>
+        <v>1.479912759413073</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.28255036870486</v>
@@ -6781,7 +6733,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.45593085569911</v>
+        <v>1.474635769817501</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.303376846822165</v>
@@ -6870,7 +6822,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.476103649723422</v>
+        <v>1.488874484864187</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.087365810293248</v>
@@ -6959,7 +6911,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527355759532015</v>
+        <v>1.534665528779341</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.164068528390457</v>
@@ -7048,7 +7000,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61911487510616</v>
+        <v>1.616213374728835</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.482490007601181</v>
@@ -7137,7 +7089,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.568758152134717</v>
+        <v>1.569099537728401</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.317465768735075</v>
@@ -7226,7 +7178,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.541208088755032</v>
+        <v>1.547489078013836</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.375923054818998</v>
@@ -7315,7 +7267,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.542218307349198</v>
+        <v>1.547836936868272</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.150999963510587</v>
@@ -7404,7 +7356,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.49291432991852</v>
+        <v>1.505793113652227</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.863193958421007</v>
@@ -7493,7 +7445,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.468408100932591</v>
+        <v>1.485845940842458</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.082112603301402</v>
@@ -7582,7 +7534,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.465973979071802</v>
+        <v>1.483932143429838</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.094918056992798</v>
@@ -7671,7 +7623,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.490885412523735</v>
+        <v>1.509540545174662</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.09032304542458</v>
@@ -7760,7 +7712,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.471189425799136</v>
+        <v>1.493625058459952</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.106192070644293</v>
@@ -7849,7 +7801,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.463256776739368</v>
+        <v>1.481267923671681</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.099546917657271</v>
@@ -7938,7 +7890,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.460352425776126</v>
+        <v>1.475140224061271</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.114804551028733</v>
@@ -8027,7 +7979,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.447949642117589</v>
+        <v>1.46120007734197</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.041678417812491</v>
@@ -8116,7 +8068,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.437998884472268</v>
+        <v>1.448000947801963</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.11574286554002</v>
@@ -8205,7 +8157,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.434543443055298</v>
+        <v>1.447742915582098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.107563300799236</v>
@@ -8294,7 +8246,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.432857788663438</v>
+        <v>1.443603723195578</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.106210831383488</v>
@@ -8383,7 +8335,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.440478878336515</v>
+        <v>1.450417806247871</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.867856350165897</v>
@@ -8472,7 +8424,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.467016368149472</v>
+        <v>1.475482882874863</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.023918616829475</v>
@@ -8561,7 +8513,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.47751113184057</v>
+        <v>1.4896048996851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.095298708341029</v>
@@ -8650,7 +8602,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.48085151197783</v>
+        <v>1.492076020227109</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.030250697027308</v>
@@ -8739,7 +8691,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.581804781029463</v>
+        <v>1.579496135625431</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.430230856831334</v>
@@ -9025,7 +8977,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.357401933609481</v>
+        <v>1.357898569295862</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.672578877340808</v>
@@ -9114,7 +9066,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.350888119131532</v>
+        <v>1.352625569755086</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.580938233833921</v>
@@ -9203,7 +9155,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.346576719486421</v>
+        <v>1.353030874691677</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.476085860348294</v>
@@ -9292,7 +9244,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.359440309793983</v>
+        <v>1.362984418088506</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.583908433190341</v>
@@ -9381,7 +9333,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.357564297685045</v>
+        <v>1.362522332851693</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.270791769716928</v>
@@ -9470,7 +9422,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.374150066659615</v>
+        <v>1.379813115619158</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.4049964008433</v>
@@ -9559,7 +9511,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.338995653321865</v>
+        <v>1.34222937782023</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.675117872852132</v>
@@ -9648,7 +9600,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.325293681596014</v>
+        <v>1.325931053411718</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.627508395460429</v>
@@ -9737,7 +9689,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.324188822963859</v>
+        <v>1.322249602569317</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.511658356123306</v>
@@ -9826,7 +9778,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.341352356744861</v>
+        <v>1.336511977316526</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.358894389708294</v>
@@ -9915,7 +9867,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.350251244829379</v>
+        <v>1.341943232313339</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.679440126311859</v>
@@ -10004,7 +9956,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.34850238473029</v>
+        <v>1.329661183323795</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.605194764081466</v>
@@ -10093,7 +10045,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.339622767161603</v>
+        <v>1.323534186238223</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.608557146635163</v>
@@ -10182,7 +10134,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.355380038676154</v>
+        <v>1.339909026263205</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.378050561461263</v>
@@ -10271,7 +10223,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.372917987847433</v>
+        <v>1.35401448940805</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.381639572935258</v>
@@ -10360,7 +10312,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.377539259462818</v>
+        <v>1.357685569590073</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.405200809460989</v>
@@ -10449,7 +10401,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.400022804113271</v>
+        <v>1.377152887002586</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.356329175987435</v>
@@ -10538,7 +10490,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.410318018537109</v>
+        <v>1.383697883821767</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.407636011013142</v>
@@ -10627,7 +10579,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.399808045353389</v>
+        <v>1.371709430293693</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.517838134004644</v>
@@ -10716,7 +10668,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.416368775695938</v>
+        <v>1.380773806759986</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.332755245941426</v>
@@ -10805,7 +10757,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.435731412199063</v>
+        <v>1.399871005537661</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.045657029791518</v>
@@ -10894,7 +10846,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455646562990618</v>
+        <v>1.415781003656059</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.324679379937522</v>
@@ -10983,7 +10935,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.490182811942509</v>
+        <v>1.443329079853916</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.662096161894564</v>
@@ -11072,7 +11024,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.491897157929799</v>
+        <v>1.448236691069251</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.522390493346287</v>
@@ -11161,7 +11113,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.47429223661854</v>
+        <v>1.43509906581026</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.521262299231727</v>
@@ -11250,7 +11202,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.453013060381181</v>
+        <v>1.428176715029384</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.518394430281381</v>
@@ -11339,7 +11291,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.463465766424204</v>
+        <v>1.440939059009089</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.175425597917461</v>
@@ -11428,7 +11380,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.463217053314363</v>
+        <v>1.439002124965977</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.5000209549235</v>
@@ -11517,7 +11469,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.467897384124877</v>
+        <v>1.43732148019998</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.546526972406722</v>
@@ -11606,7 +11558,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.45185081689564</v>
+        <v>1.425260671722528</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.321059373582698</v>
@@ -11695,7 +11647,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.454318184192612</v>
+        <v>1.426247766998476</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.566399272395388</v>
@@ -11784,7 +11736,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.450562919749801</v>
+        <v>1.419169517531574</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.581668146534219</v>
@@ -11873,7 +11825,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.444568507529857</v>
+        <v>1.415340169504357</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.416491737676073</v>
@@ -11962,7 +11914,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.43397092302681</v>
+        <v>1.406899832072272</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.491102211782819</v>
@@ -12051,7 +12003,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.437955891132983</v>
+        <v>1.413262304931023</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.478537102312978</v>
@@ -12140,7 +12092,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.426350130861886</v>
+        <v>1.401756439222439</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.525264079335165</v>
@@ -12229,7 +12181,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.434737711408097</v>
+        <v>1.412448028940569</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.361809381755258</v>
@@ -12318,7 +12270,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.43567231827195</v>
+        <v>1.411446879770193</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.636457317192057</v>
@@ -12407,7 +12359,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.431618034739272</v>
+        <v>1.404518025050361</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.545483963545943</v>
@@ -12496,7 +12448,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.435448112388154</v>
+        <v>1.406518555717746</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.547244461544263</v>
@@ -12585,7 +12537,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.433887746923209</v>
+        <v>1.393727103340931</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.468947103657584</v>
@@ -12674,7 +12626,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.433660814041634</v>
+        <v>1.391651309821439</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.422226806161529</v>
@@ -12763,7 +12715,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.440943709517995</v>
+        <v>1.400927412652805</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.499928011328755</v>
@@ -12852,7 +12804,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.448638463852969</v>
+        <v>1.408394751739595</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.34985660083413</v>
@@ -12941,7 +12893,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.461317778953918</v>
+        <v>1.415810139195301</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.370513709146433</v>
@@ -13030,7 +12982,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.460138717912338</v>
+        <v>1.412338843904553</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.409160507327882</v>
@@ -13119,7 +13071,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.459825689167414</v>
+        <v>1.414516141341164</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.422642936503795</v>
@@ -13208,7 +13160,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.46442809973927</v>
+        <v>1.422104907288702</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.372195554263313</v>
@@ -13297,7 +13249,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.465391614873397</v>
+        <v>1.42400530327078</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.352797820214239</v>
@@ -13386,7 +13338,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.471743056584326</v>
+        <v>1.427391605388497</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.378660153103204</v>
@@ -13475,7 +13427,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.486097374267796</v>
+        <v>1.441886046624671</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.471358744228213</v>
@@ -13761,7 +13713,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.369103455808843</v>
+        <v>1.397238522439043</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.531190729061897</v>
@@ -13850,7 +13802,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.384824886202453</v>
+        <v>1.411580143577064</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.319216719743575</v>
@@ -13939,7 +13891,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.392826948213826</v>
+        <v>1.418294354031453</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.5124591421272</v>
@@ -14028,7 +13980,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.392473486056223</v>
+        <v>1.416791057385401</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.546798677433892</v>
@@ -14117,7 +14069,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.394945496600384</v>
+        <v>1.418352720069068</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.315300809862102</v>
@@ -14206,7 +14158,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.405433927157264</v>
+        <v>1.427511702933566</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.41534430259038</v>
@@ -14295,7 +14247,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.404328090229995</v>
+        <v>1.427835322991076</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.340333117945008</v>
@@ -14384,7 +14336,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.415852072982664</v>
+        <v>1.439028064464758</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.5188795894006</v>
@@ -14473,7 +14425,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.430941026993057</v>
+        <v>1.452136348989856</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.176827937927881</v>
@@ -14562,7 +14514,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.455681058949073</v>
+        <v>1.47041080003075</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.945456957854996</v>
@@ -14651,7 +14603,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.446910196361119</v>
+        <v>1.452510551956451</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.957763144733466</v>
@@ -14740,7 +14692,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453158916803085</v>
+        <v>1.455322481753999</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.812247398802822</v>
@@ -14829,7 +14781,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.455545193567826</v>
+        <v>1.454443207845171</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.914076499496227</v>
@@ -14918,7 +14870,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.470416011894942</v>
+        <v>1.468630754560577</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.623881386851228</v>
@@ -15007,7 +14959,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.481076639719456</v>
+        <v>1.478217515219069</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.911706804385638</v>
@@ -15096,7 +15048,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.483473439463495</v>
+        <v>1.477724608553779</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.070360049247623</v>
@@ -15185,7 +15137,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.486879084504945</v>
+        <v>1.480561008187499</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.310414275031363</v>
@@ -15274,7 +15226,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.493865864995741</v>
+        <v>1.486102819205159</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.852432175061111</v>
@@ -15363,7 +15315,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.503562360350043</v>
+        <v>1.490084012623594</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.961262688418101</v>
@@ -15452,7 +15404,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.498918020669491</v>
+        <v>1.49186784019017</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.027990118048403</v>
@@ -15541,7 +15493,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.503284741454323</v>
+        <v>1.493874463344552</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.771530821103068</v>
@@ -15630,7 +15582,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.511365738210434</v>
+        <v>1.501575182672632</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.960462213835711</v>
@@ -15719,7 +15671,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.498130780861213</v>
+        <v>1.489384974718686</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.905779026486356</v>
@@ -15808,7 +15760,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.472599762102068</v>
+        <v>1.467234846881974</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.09711912661176</v>
@@ -15897,7 +15849,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.474784847521799</v>
+        <v>1.463492720597542</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.627413687371952</v>
@@ -15986,7 +15938,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.478105092987264</v>
+        <v>1.476122605739698</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.038724981248088</v>
@@ -16075,7 +16027,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.479221113310315</v>
+        <v>1.476460160307339</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.991701801293052</v>
@@ -16164,7 +16116,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.479479455010629</v>
+        <v>1.481789120215361</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.117080589914938</v>
@@ -16253,7 +16205,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.478167833239476</v>
+        <v>1.476238709163809</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.62599749121769</v>
@@ -16342,7 +16294,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.472867235925745</v>
+        <v>1.46909513692672</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.118877129512522</v>
@@ -16431,7 +16383,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.462114265006039</v>
+        <v>1.451754818228272</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.815770972693584</v>
@@ -16520,7 +16472,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.462689775635108</v>
+        <v>1.453600935525716</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.041680253377621</v>
@@ -16609,7 +16561,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.457460319189497</v>
+        <v>1.450076860178646</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.931169764692651</v>
@@ -16698,7 +16650,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.452604636724372</v>
+        <v>1.445539302930197</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.7746890998436</v>
@@ -16787,7 +16739,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.460699943584296</v>
+        <v>1.454059609737528</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.962586386312048</v>
@@ -16876,7 +16828,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.450677856737178</v>
+        <v>1.444433454831609</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.908485016788849</v>
@@ -16965,7 +16917,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.449373250715611</v>
+        <v>1.445660144452308</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.704551100531824</v>
@@ -17054,7 +17006,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.460094685480271</v>
+        <v>1.457566631867282</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.544621664434059</v>
@@ -17143,7 +17095,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.471989200921577</v>
+        <v>1.467541718203201</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.719890086306918</v>
@@ -17232,7 +17184,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.470427391569537</v>
+        <v>1.468639480065728</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.935432036397184</v>
@@ -17321,7 +17273,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.472820469889138</v>
+        <v>1.463891528789052</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.722216587206097</v>
@@ -17410,7 +17362,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.469043369762603</v>
+        <v>1.457975034313343</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.735721252330884</v>
@@ -17499,7 +17451,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.460946048972843</v>
+        <v>1.444026313816845</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.885331339386984</v>
@@ -17588,7 +17540,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.463225563542912</v>
+        <v>1.446538945490826</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.885721698991861</v>
@@ -17677,7 +17629,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.458485259403205</v>
+        <v>1.444422874449927</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.8390710314031</v>
@@ -17766,7 +17718,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.463745519702961</v>
+        <v>1.450248204207568</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.866282084799122</v>
@@ -17855,7 +17807,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.450389505521658</v>
+        <v>1.441711152726627</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.738613386964969</v>
@@ -17944,7 +17896,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.446575589889945</v>
+        <v>1.440391487945483</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.701905543997007</v>
@@ -18033,7 +17985,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.426232018067323</v>
+        <v>1.423175478230015</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.260889483017837</v>
@@ -18122,7 +18074,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.42260038447899</v>
+        <v>1.417591669660264</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.218911675665559</v>
@@ -18211,7 +18163,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.427153757210737</v>
+        <v>1.424768114871319</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.224980934357244</v>
@@ -18497,7 +18449,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.492654637357555</v>
+        <v>1.491872643368627</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.374292130172954</v>
@@ -18586,7 +18538,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.505918523418372</v>
+        <v>1.507107169408826</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.305811452764083</v>
@@ -18675,7 +18627,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.527467422884905</v>
+        <v>1.524596993641797</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.407263127772929</v>
@@ -18764,7 +18716,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.538967401617862</v>
+        <v>1.530952149250618</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.42176081652581</v>
@@ -18853,7 +18805,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.56036918024069</v>
+        <v>1.552359676518505</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.418096814614052</v>
@@ -18942,7 +18894,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.564114996215543</v>
+        <v>1.552275373246604</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.372513580284649</v>
@@ -19031,7 +18983,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.5751149541822</v>
+        <v>1.563651684308638</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.418546767587641</v>
@@ -19120,7 +19072,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.582488746237141</v>
+        <v>1.565511956696898</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.377582291978722</v>
@@ -19209,7 +19161,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.59072528039062</v>
+        <v>1.560990673387016</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.134315813043835</v>
@@ -19298,7 +19250,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.630391105135154</v>
+        <v>1.580851588521025</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.678447600332857</v>
@@ -19387,7 +19339,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.63059751754175</v>
+        <v>1.57270498908434</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.680657964259021</v>
@@ -19476,7 +19428,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.621820713568574</v>
+        <v>1.56240592908696</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.736836364467607</v>
@@ -19565,7 +19517,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.620462715798073</v>
+        <v>1.563621434521278</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.819546154389116</v>
@@ -19654,7 +19606,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.611960782395496</v>
+        <v>1.552488957732082</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.663304563130068</v>
@@ -19743,7 +19695,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.622662248431622</v>
+        <v>1.558735306686685</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.571712179932694</v>
@@ -19832,7 +19784,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.655123223827674</v>
+        <v>1.576391697087784</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.297796177924736</v>
@@ -19921,7 +19873,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.657832160369463</v>
+        <v>1.57686502624252</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.530519823745474</v>
@@ -20010,7 +19962,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.650728099453879</v>
+        <v>1.578842019431659</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.280261634296736</v>
@@ -20099,7 +20051,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.657427033019258</v>
+        <v>1.587634322302685</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.336884074706638</v>
@@ -20188,7 +20140,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.660014004635341</v>
+        <v>1.593496286237093</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.42720241594006</v>
@@ -20277,7 +20229,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.658944687259116</v>
+        <v>1.595620000360952</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.336399708775047</v>
@@ -20366,7 +20318,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.642842246784743</v>
+        <v>1.58138288868404</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.536984109499079</v>
@@ -20455,7 +20407,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.633160995492119</v>
+        <v>1.578684912199537</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.373083423219996</v>
@@ -20544,7 +20496,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.635818635497897</v>
+        <v>1.584532360825716</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.337002820619665</v>
@@ -20633,7 +20585,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.631070932130753</v>
+        <v>1.589598165557913</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.182273794975468</v>
@@ -20722,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.632962948029448</v>
+        <v>1.592664615648696</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.114556076633559</v>
@@ -20811,7 +20763,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.644092845259523</v>
+        <v>1.605035428560805</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.305125178426077</v>
@@ -20900,7 +20852,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.643339519742294</v>
+        <v>1.601476625465874</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.317911105017677</v>
@@ -20989,7 +20941,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.6559260348172</v>
+        <v>1.618760603861449</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.50843776824628</v>
@@ -21078,7 +21030,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651458324547574</v>
+        <v>1.612506574683052</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.550545782487548</v>
@@ -21167,7 +21119,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653535027381187</v>
+        <v>1.608899069773225</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.321811936548225</v>
@@ -21256,7 +21208,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.648842322543121</v>
+        <v>1.599691411281179</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.714655309541325</v>
@@ -21345,7 +21297,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648908061416411</v>
+        <v>1.598153684116557</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.253350843865506</v>
@@ -21434,7 +21386,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.650311244938905</v>
+        <v>1.600754332892408</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.909436791845554</v>
@@ -21523,7 +21475,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.647552068819336</v>
+        <v>1.598194673719218</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.481682482199365</v>
@@ -21612,7 +21564,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.632601780736836</v>
+        <v>1.581696942627185</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.959777176511905</v>
@@ -21701,7 +21653,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.636077346312103</v>
+        <v>1.584092629730884</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.799472870253896</v>
@@ -21790,7 +21742,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.637140824466172</v>
+        <v>1.58489854526667</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.927975928798845</v>
@@ -21879,7 +21831,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.633709360283477</v>
+        <v>1.581221968200429</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.09605809325233</v>
@@ -21968,7 +21920,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632295120941981</v>
+        <v>1.576279996158113</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.217277979858496</v>
@@ -22057,7 +22009,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.591131688967814</v>
+        <v>1.548804259182357</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.419213376936645</v>
@@ -22146,7 +22098,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.581618134544019</v>
+        <v>1.541180345882213</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.612465135193154</v>
@@ -22235,7 +22187,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.56448634029049</v>
+        <v>1.52827311362875</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.504917706469269</v>
@@ -22324,7 +22276,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.539753175030707</v>
+        <v>1.503677104318603</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.602474102780632</v>
@@ -22413,7 +22365,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.538264969592235</v>
+        <v>1.503878804732326</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.504047263102288</v>
@@ -22502,7 +22454,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.520945239459512</v>
+        <v>1.493993053475438</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.48331670399252</v>
@@ -22591,7 +22543,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515502172919365</v>
+        <v>1.492398115224313</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.441893865325192</v>
@@ -22680,7 +22632,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507204376164507</v>
+        <v>1.488152558662723</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.421807027603309</v>
@@ -22769,7 +22721,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.510239982595131</v>
+        <v>1.489212670849095</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.596308905312882</v>
@@ -22858,7 +22810,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.512950327828312</v>
+        <v>1.484726773013821</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.627861974701151</v>
@@ -22947,7 +22899,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.526532368853516</v>
+        <v>1.498162538593755</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.555809026968739</v>
@@ -23233,7 +23185,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.138715663995026</v>
+        <v>1.12509828895888</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.081177694601756</v>
@@ -23322,7 +23274,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.154992175826016</v>
+        <v>1.138497002724588</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.818497647181157</v>
@@ -23411,7 +23363,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.186108202816736</v>
+        <v>1.168010674613152</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.922881363464182</v>
@@ -23500,7 +23452,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.196812541505481</v>
+        <v>1.177697677677098</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.935741145022464</v>
@@ -23589,7 +23541,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.207430826917564</v>
+        <v>1.191031757046022</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.867598150369249</v>
@@ -23678,7 +23630,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.242984393253505</v>
+        <v>1.220745949024345</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.72506967854848</v>
@@ -23767,7 +23719,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.250322100312217</v>
+        <v>1.228891434061012</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.88078605911754</v>
@@ -23856,7 +23808,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.264278419386698</v>
+        <v>1.242057667440299</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.932276511020539</v>
@@ -23945,7 +23897,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.291873683543308</v>
+        <v>1.265068515987171</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.718513694117297</v>
@@ -24034,7 +23986,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.34779133429835</v>
+        <v>1.313529152919079</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.678372152258913</v>
@@ -24123,7 +24075,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.378334464128749</v>
+        <v>1.341708426703801</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.314852422676724</v>
@@ -24212,7 +24164,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.388971581314842</v>
+        <v>1.351738927510649</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.248636485487922</v>
@@ -24301,7 +24253,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.394119649497279</v>
+        <v>1.355649147168321</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.217612021237083</v>
@@ -24390,7 +24342,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.389644522778531</v>
+        <v>1.345410701574757</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.291817012258594</v>
@@ -24479,7 +24431,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.420448122615666</v>
+        <v>1.37068961808698</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.980821689617403</v>
@@ -24568,7 +24520,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.44541021298006</v>
+        <v>1.388703760896627</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.219207756883611</v>
@@ -24657,7 +24609,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.429926262074185</v>
+        <v>1.376557838015264</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.301976606022095</v>
@@ -24746,7 +24698,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.426882151981612</v>
+        <v>1.380435049686055</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.188753631729015</v>
@@ -24835,7 +24787,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.453022277331878</v>
+        <v>1.397581017776599</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.200212613490344</v>
@@ -24924,7 +24876,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.473371386234249</v>
+        <v>1.40858581653277</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.323441245700766</v>
@@ -25013,7 +24965,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.463106876372781</v>
+        <v>1.400744797750923</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.891136895194365</v>
@@ -25102,7 +25054,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.403862608867727</v>
+        <v>1.354605717354981</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.980592475093999</v>
@@ -25191,7 +25143,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.394432860891773</v>
+        <v>1.350372018128796</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.979775591198325</v>
@@ -25280,7 +25232,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.389466768406182</v>
+        <v>1.345232394012639</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.979466338731521</v>
@@ -25369,7 +25321,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.378869416425445</v>
+        <v>1.33715833114709</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.925000658116477</v>
@@ -25458,7 +25410,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.375391713982285</v>
+        <v>1.334351826343482</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.999576060953006</v>
@@ -25547,7 +25499,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.371417416223311</v>
+        <v>1.331033907201194</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.035736995228796</v>
@@ -25636,7 +25588,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.380744795948875</v>
+        <v>1.336421581939206</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.051216364548226</v>
@@ -25725,7 +25677,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.388684340415702</v>
+        <v>1.349348259617899</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.948394810395794</v>
@@ -25814,7 +25766,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.389341618378422</v>
+        <v>1.349924495355751</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.01703599685285</v>
@@ -25903,7 +25855,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.384902460449696</v>
+        <v>1.346793588898108</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.00810731722116</v>
@@ -25992,7 +25944,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.392919404324698</v>
+        <v>1.352960668315871</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.007570093059191</v>
@@ -26081,7 +26033,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.388351401024037</v>
+        <v>1.346379066436437</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.977448089969228</v>
@@ -26170,7 +26122,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.391671736153381</v>
+        <v>1.352929736598406</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.977768561405802</v>
@@ -26259,7 +26211,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.395410340506434</v>
+        <v>1.35600387614923</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.972468767587562</v>
@@ -26348,7 +26300,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.447490493229114</v>
+        <v>1.398885569779577</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.065716837956361</v>
@@ -26437,7 +26389,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.479147080169296</v>
+        <v>1.418497151694786</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.645942860388573</v>
@@ -26526,7 +26478,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.493430454394735</v>
+        <v>1.427834763894789</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.024263444265396</v>
@@ -26615,7 +26567,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.499507200973527</v>
+        <v>1.432195448346708</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.046418297641796</v>
@@ -26704,7 +26656,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.474456671282031</v>
+        <v>1.411767036345402</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.289999313531421</v>
@@ -26793,7 +26745,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.336887389116512</v>
+        <v>1.303451585815922</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.606267897147747</v>
@@ -26882,7 +26834,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.307406297983509</v>
+        <v>1.278556003460038</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.623799849305056</v>
@@ -26971,7 +26923,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.266961432850038</v>
+        <v>1.239409785076156</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.65414975930355</v>
@@ -27060,7 +27012,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.234843327547715</v>
+        <v>1.206296214026211</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.677935838611092</v>
@@ -27149,7 +27101,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.208785490864914</v>
+        <v>1.182248337686427</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.719170309342206</v>
@@ -27238,7 +27190,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.196019461873464</v>
+        <v>1.169508957943107</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.75036705313082</v>
@@ -27327,7 +27279,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.181633122828051</v>
+        <v>1.154856431834126</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.747199861058615</v>
@@ -27416,7 +27368,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.170442471934346</v>
+        <v>1.144757066099849</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.778055743033043</v>
@@ -27505,7 +27457,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.14618604137124</v>
+        <v>1.125309895349484</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.783478791050545</v>
@@ -27594,7 +27546,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.137614375079052</v>
+        <v>1.118400944189976</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.769371239964598</v>
@@ -27683,7 +27635,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.132359678708873</v>
+        <v>1.112353896189986</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.787308492563278</v>
@@ -27969,7 +27921,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.231753861413232</v>
+        <v>1.245792557320468</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.041218938740999</v>
@@ -28058,7 +28010,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.226043540608818</v>
+        <v>1.239919807046701</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.978708268949616</v>
@@ -28147,7 +28099,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.229380368269527</v>
+        <v>1.244227148971638</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.06134553649208</v>
@@ -28236,7 +28188,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.231218958100851</v>
+        <v>1.245154162931565</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.964744756620947</v>
@@ -28325,7 +28277,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.23954470654089</v>
+        <v>1.254823346800344</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.058254370066215</v>
@@ -28414,7 +28366,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.252284708442556</v>
+        <v>1.267343035079557</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.938909463579455</v>
@@ -28503,7 +28455,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.258643062807418</v>
+        <v>1.270618759887822</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.965338473933179</v>
@@ -28592,7 +28544,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.267242896738863</v>
+        <v>1.2807416801772</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.046214136490676</v>
@@ -28681,7 +28633,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.291136363433617</v>
+        <v>1.302654464978112</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.765766425715997</v>
@@ -28770,7 +28722,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.330792346317523</v>
+        <v>1.338683051855626</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.189839985006809</v>
@@ -28859,7 +28811,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.350328642201431</v>
+        <v>1.358276099899034</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.180187291872843</v>
@@ -28948,7 +28900,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.374029314217396</v>
+        <v>1.376487700753833</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.085771922733351</v>
@@ -29037,7 +28989,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.389792578326695</v>
+        <v>1.39263785205801</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.088475373903081</v>
@@ -29126,7 +29078,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.361420195757611</v>
+        <v>1.370666547272638</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.134626621868769</v>
@@ -29215,7 +29167,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.366684118628062</v>
+        <v>1.378134048435963</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.284097191478715</v>
@@ -29304,7 +29256,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.385383039516144</v>
+        <v>1.390904340256691</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.154476798775236</v>
@@ -29393,7 +29345,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.352113315409148</v>
+        <v>1.356440003129024</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.236310737842703</v>
@@ -29482,7 +29434,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.361667276693285</v>
+        <v>1.366042376618492</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.176310731181589</v>
@@ -29571,7 +29523,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.358137239792322</v>
+        <v>1.362602319918923</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.200615865257367</v>
@@ -29660,7 +29612,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.333259747991796</v>
+        <v>1.338337539166065</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.26473301991992</v>
@@ -29749,7 +29701,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.309728874684294</v>
+        <v>1.31693912238998</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.256111514815142</v>
@@ -29838,7 +29790,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.308073842078551</v>
+        <v>1.316203080202836</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.253093716202809</v>
@@ -29927,7 +29879,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.294458237572862</v>
+        <v>1.299728359699735</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.306606981504923</v>
@@ -30016,7 +29968,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.289495747097898</v>
+        <v>1.291402415448975</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.318975855988071</v>
@@ -30105,7 +30057,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.273021623259751</v>
+        <v>1.27732227083714</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.326277717603663</v>
@@ -30194,7 +30146,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.256420544261489</v>
+        <v>1.260679902198446</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.348986188108422</v>
@@ -30283,7 +30235,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.254328295113478</v>
+        <v>1.258611600172874</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.147724872082381</v>
@@ -30372,7 +30324,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.261467666448926</v>
+        <v>1.26178533377555</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.272349744443319</v>
@@ -30461,7 +30413,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.284399889758538</v>
+        <v>1.281910148127445</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.238314603419292</v>
@@ -30550,7 +30502,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.291505354175749</v>
+        <v>1.284602699976816</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.095866349163906</v>
@@ -30639,7 +30591,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.312918104597103</v>
+        <v>1.306778876194364</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.148294091640755</v>
@@ -30728,7 +30680,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.369646983693747</v>
+        <v>1.358343682642271</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.309098251745637</v>
@@ -30817,7 +30769,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.33738568178157</v>
+        <v>1.330572735992698</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.22054313151631</v>
@@ -30906,7 +30858,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.341851266690344</v>
+        <v>1.33059215260034</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.179030447775533</v>
@@ -30995,7 +30947,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.359752765209835</v>
+        <v>1.347960917439257</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.231678183488386</v>
@@ -31084,7 +31036,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.341294480075475</v>
+        <v>1.326827432115065</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.207381022082673</v>
@@ -31173,7 +31125,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.302345984371279</v>
+        <v>1.295144935297827</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.240044117672097</v>
@@ -31262,7 +31214,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.300853165074227</v>
+        <v>1.296684774468836</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.307135267446146</v>
@@ -31351,7 +31303,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.282552718460967</v>
+        <v>1.280710007141015</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.391675007769209</v>
@@ -31440,7 +31392,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.279410104803268</v>
+        <v>1.271939877678027</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.923205045272451</v>
@@ -31529,7 +31481,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.254455481967694</v>
+        <v>1.253609428667982</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.894221191838119</v>
@@ -31618,7 +31570,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.239166102985508</v>
+        <v>1.240758821324579</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.94732310286693</v>
@@ -31707,7 +31659,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.251762014799878</v>
+        <v>1.254149665538843</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.022613386695847</v>
@@ -31796,7 +31748,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.250075299673655</v>
+        <v>1.25468704069287</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.005115612711422</v>
@@ -31885,7 +31837,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.24485906340574</v>
+        <v>1.250417769816081</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.979250946666203</v>
@@ -31974,7 +31926,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.22960379911638</v>
+        <v>1.2374724509172</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.994370236935352</v>
@@ -32063,7 +32015,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.204098084754737</v>
+        <v>1.204625563565556</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.986395211587978</v>
@@ -32152,7 +32104,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.198706442505145</v>
+        <v>1.19665726098795</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.004123652284828</v>
@@ -32241,7 +32193,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.183004884077987</v>
+        <v>1.178471898663745</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.047457001978534</v>
@@ -32330,7 +32282,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.181380251649522</v>
+        <v>1.17618069464805</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.094061205824158</v>
@@ -32419,7 +32371,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.181715146649206</v>
+        <v>1.178868711198828</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.092297114398525</v>
